--- a/data/income_statement/2digits/size/47_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/47_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>47-Retail trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>47-Retail trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>57813672.22100999</v>
+        <v>57292496.17746001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>66185372.36323</v>
+        <v>65552028.11235001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>86164053.58338001</v>
+        <v>85232540.28966001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>106386898.17518</v>
+        <v>105683905.25429</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>115840580.37613</v>
+        <v>116029479.35592</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>136666942.26593</v>
+        <v>140541671.28229</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>166062155.87747</v>
+        <v>172381313.90201</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>196451460.05982</v>
+        <v>198681751.14102</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>253728959.7646</v>
+        <v>249677101.3055</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>267750640.35073</v>
+        <v>265990633.97012</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>323988975.23893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>324241224.29304</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>386759964.013</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>53865143.81438001</v>
+        <v>53384181.00245</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>61437927.89743999</v>
+        <v>60851013.328</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>80274088.38456</v>
+        <v>79445898.47213</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>99131400.10585</v>
+        <v>98488597.43214999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>107701835.01365</v>
+        <v>107868985.51229</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>127458969.4501</v>
+        <v>131050862.58985</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>155342217.25679</v>
+        <v>161412926.17436</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>183221883.47496</v>
+        <v>185284746.93729</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>237252909.79283</v>
+        <v>233445108.86964</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>247793352.77389</v>
+        <v>246248632.43142</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>298163701.82869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>298680445.2173201</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>361782905.685</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>2076048.2134</v>
+        <v>2046993.30142</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2563692.02941</v>
+        <v>2532126.91696</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3201597.94922</v>
+        <v>3130167.464019999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>3976809.70501</v>
+        <v>3947371.26251</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4730562.074770001</v>
+        <v>4719609.12729</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5622321.94705</v>
+        <v>5577024.331530001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6357968.193809999</v>
+        <v>6339869.787939999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>8354911.254729999</v>
+        <v>8337256.86049</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>10045478.33805</v>
+        <v>9952177.54648</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12867515.49326</v>
+        <v>12777661.6136</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>16596583.84205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16467210.91178</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>14274383.635</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1872480.19323</v>
+        <v>1861321.87359</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2183752.43638</v>
+        <v>2168887.86739</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2688367.2496</v>
+        <v>2656474.35351</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3278688.36432</v>
+        <v>3247936.55963</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3408183.28771</v>
+        <v>3440884.71634</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3585650.86878</v>
+        <v>3913784.36091</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4361970.42687</v>
+        <v>4628517.939709999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4874665.33013</v>
+        <v>5059747.343239999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6430571.63372</v>
+        <v>6279814.889380001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>7089772.08358</v>
+        <v>6964339.925100001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>9228689.568190001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9093568.163939999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>10702674.693</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6755127.369609999</v>
+        <v>6738521.9571</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2786830.86711</v>
+        <v>2764605.26424</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3750271.02032</v>
+        <v>3723316.80588</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4668912.78743</v>
+        <v>4629906.01725</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5499982.457889999</v>
+        <v>5449434.841899999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6582429.256770001</v>
+        <v>6750183.98698</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7373854.12742</v>
+        <v>8164367.555989999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>10741434.74077</v>
+        <v>9952200.11166</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12565820.69387</v>
+        <v>12408537.47456</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>15306561.54719</v>
+        <v>15252826.3026</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>19992617.07463</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>20237717.10904</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>22339601.241</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5695231.04589</v>
+        <v>5682753.631519999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1432439.0096</v>
+        <v>1416101.9641</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1940104.93635</v>
+        <v>1925049.33898</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2554649.3324</v>
+        <v>2525135.79156</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3032211.66922</v>
+        <v>3013770.76828</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3623628.19259</v>
+        <v>3733637.3165</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4320792.58852</v>
+        <v>4546352.71384</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6321223.0356</v>
+        <v>5509612.429290001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>6909773.10353</v>
+        <v>6814696.601129999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8294909.489800001</v>
+        <v>8267465.745189999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>9769140.816500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10017875.90066</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>10954574.717</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1000283.56376</v>
+        <v>997829.13738</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1258000.68179</v>
+        <v>1252298.3191</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1683250.97133</v>
+        <v>1672740.94567</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1962992.53818</v>
+        <v>1953155.7769</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2322524.79257</v>
+        <v>2288019.79974</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2804535.965110001</v>
+        <v>2857283.88441</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2913791.22815</v>
+        <v>3474447.56056</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4207478.39099</v>
+        <v>4233098.273709999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5409517.33231</v>
+        <v>5354031.53954</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6755312.80959</v>
+        <v>6732386.421899999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9983465.611440001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9979856.797039999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>11165575.77</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>59612.75996000001</v>
+        <v>57939.1882</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>96391.17572</v>
+        <v>96204.98104</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>126915.11264</v>
+        <v>125526.52123</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>151270.91685</v>
+        <v>151614.44879</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>145245.9961</v>
+        <v>147644.27388</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>154265.09907</v>
+        <v>159262.78607</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>139270.31075</v>
+        <v>143567.28159</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>212733.31418</v>
+        <v>209489.40866</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>246530.25803</v>
+        <v>239809.33389</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>256339.2478</v>
+        <v>252974.13551</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>240010.64669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>239984.41134</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>219450.754</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>51058544.8514</v>
+        <v>50553974.22036</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>63398541.49612</v>
+        <v>62787422.84810999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>82413782.56306</v>
+        <v>81509223.48378</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>101717985.38775</v>
+        <v>101053999.23704</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>110340597.91824</v>
+        <v>110580044.51402</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>130084513.00916</v>
+        <v>133791487.29531</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>158688301.75005</v>
+        <v>164216946.34602</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>185710025.31905</v>
+        <v>188729551.02936</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>241163139.07073</v>
+        <v>237268563.83094</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>252444078.80354</v>
+        <v>250737807.66752</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>303996358.1643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>304003507.184</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>364420362.772</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>39094097.36889</v>
+        <v>38709219.97539</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>48201115.76982</v>
+        <v>47733130.94952001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>62838625.5488</v>
+        <v>62128524.38978</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>78264294.12239</v>
+        <v>77842662.67414001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>83332417.45210001</v>
+        <v>83715366.759</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>98255597.26638998</v>
+        <v>101018857.76104</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>120296236.13617</v>
+        <v>124365319.06827</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>141423036.45494</v>
+        <v>143225491.32122</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>184198546.05623</v>
+        <v>181114402.18229</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>184462739.92465</v>
+        <v>183017313.09935</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>222627064.33776</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>222408642.26973</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>272869348.959</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1113751.27017</v>
+        <v>1064885.80605</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1716264.25674</v>
+        <v>1682319.15317</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2551167.42445</v>
+        <v>2498714.50059</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2543523.25939</v>
+        <v>2480317.19374</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>3333491.02941</v>
+        <v>3913093.23279</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1756790.6609</v>
+        <v>1663846.60752</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1986417.41609</v>
+        <v>2035917.81193</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2759297.75312</v>
+        <v>2650397.0027</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>3343500.318140001</v>
+        <v>3139406.24332</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2523498.3298</v>
+        <v>2475746.256370001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3593050.22529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3481850.60309</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4201843.715</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>37209867.74589</v>
+        <v>36886567.4994</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>45687769.19642</v>
+        <v>45273391.45882</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>59339040.22806</v>
+        <v>58694621.1188</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>74354886.17320001</v>
+        <v>74034414.67648001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>78799164.29113001</v>
+        <v>78608631.59000999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>95019374.90398</v>
+        <v>97887066.21356001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>116744884.87169</v>
+        <v>120701630.20568</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>136677874.9455</v>
+        <v>138677343.72061</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>177969207.18762</v>
+        <v>175278638.6353</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>179700248.14542</v>
+        <v>178363141.71702</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>216140683.19674</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>216089275.97227</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>266190102.425</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>732333.92246</v>
+        <v>719988.2549500001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>744325.5327400001</v>
+        <v>725135.3422999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>906695.3392500001</v>
+        <v>893584.2829199999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1284236.84025</v>
+        <v>1246609.71613</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1111285.43188</v>
+        <v>1105413.86679</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1351365.3715</v>
+        <v>1298478.12036</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1388408.19526</v>
+        <v>1441953.53612</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1764848.09482</v>
+        <v>1687791.51692</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2574408.54929</v>
+        <v>2423581.43625</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2066385.45607</v>
+        <v>2006581.07112</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2614782.20884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2556051.47768</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2267747.476</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>38144.43036999999</v>
+        <v>37778.41499</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>52756.78392</v>
+        <v>52284.99522999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>41722.55704</v>
+        <v>41604.48747</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>81647.84955</v>
+        <v>81321.08779000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>88476.69968000001</v>
+        <v>88228.06941000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>128066.33001</v>
+        <v>169466.8196</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>176525.65313</v>
+        <v>185817.51454</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>221015.6615</v>
+        <v>209959.08099</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>311430.00118</v>
+        <v>272775.86742</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>172607.99336</v>
+        <v>171844.05484</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>278548.70689</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>281464.21669</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>209655.343</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>11964447.48251</v>
+        <v>11844754.24497</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>15197425.7263</v>
+        <v>15054291.89859</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>19575157.01426</v>
+        <v>19380699.094</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>23453691.26536</v>
+        <v>23211336.5629</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>27008180.46614</v>
+        <v>26864677.75502</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>31828915.74277</v>
+        <v>32772629.53427</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>38392065.61388001</v>
+        <v>39851627.27775</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>44286988.86411</v>
+        <v>45504059.70814</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>56964593.01450001</v>
+        <v>56154161.64865</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>67981338.87889001</v>
+        <v>67720494.56817</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>81369293.82654001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>81594864.91427</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>91551013.81299999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>10695610.12438</v>
+        <v>10571524.90085</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>13280318.36548</v>
+        <v>13101628.27471</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>17121310.32163</v>
+        <v>16911190.91226</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>20988857.74334</v>
+        <v>20750391.95952</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>24290722.29333</v>
+        <v>24280097.52483</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>28219954.54478</v>
+        <v>29347167.9881</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>33791154.14909001</v>
+        <v>35420048.44493</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>39860742.77401</v>
+        <v>41140504.70757</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>49107859.36086</v>
+        <v>48444290.74575</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>58291513.59436</v>
+        <v>58031782.17774001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>70806741.47339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>70909761.46191999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>79499704.74699999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>12466.79534</v>
+        <v>12253.94735</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>18030.83869</v>
+        <v>17829.16383</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>30837.95426</v>
@@ -1586,526 +1572,591 @@
         <v>52788.29523999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>70353.81829</v>
+        <v>67885.38182</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>78758.61929999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>104769.4547</v>
+        <v>102678.0743</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>138336.72964</v>
+        <v>137137.574</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>168584.31073</v>
+        <v>163755.16129</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>209663.78891</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>274422.39028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>263653.27474</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>470801.967</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>7348216.975669999</v>
+        <v>7289427.175349999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>9317559.697959999</v>
+        <v>9238813.15839</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>12118657.91014</v>
+        <v>12024714.52343</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>15285192.15291</v>
+        <v>15148880.61899</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>18073083.12757</v>
+        <v>17931566.99604</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>21745450.49989</v>
+        <v>22146382.0044</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>25860654.04829</v>
+        <v>26620515.01391</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>30420535.58782</v>
+        <v>31105208.44816</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>37303896.16453</v>
+        <v>37005221.59693</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>45846995.83233</v>
+        <v>45729724.24533</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>55586108.94052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>55771620.53225999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>63273220.786</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3334926.35337</v>
+        <v>3269843.77815</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>3944727.82883</v>
+        <v>3844985.95249</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>4971814.457230001</v>
+        <v>4855638.43457</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>5650877.29519</v>
+        <v>5548723.04529</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>6147285.347470001</v>
+        <v>6280645.146969999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>6395745.42559</v>
+        <v>7122027.364399999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>7825730.6461</v>
+        <v>8696855.356719999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>9301870.45655</v>
+        <v>9898158.68541</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>11635378.8856</v>
+        <v>11275313.98753</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>12234853.97312</v>
+        <v>12092394.1435</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>14946210.14259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14874487.65492</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>15755681.994</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1268837.35813</v>
+        <v>1273229.34412</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1917107.36082</v>
+        <v>1952663.62388</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2453846.69263</v>
+        <v>2469508.18174</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2464833.52202</v>
+        <v>2460944.60338</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2717458.17281</v>
+        <v>2584580.23019</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>3608961.19799</v>
+        <v>3425461.54617</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4600911.464789999</v>
+        <v>4431578.83282</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>4426246.090100001</v>
+        <v>4363555.000570001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>7856733.65364</v>
+        <v>7709870.902899999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>9689825.284529999</v>
+        <v>9688712.39043</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>10562552.35315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>10685103.45235</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>12051309.066</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4499936.92529</v>
+        <v>1531107.08543</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2211840.683269999</v>
+        <v>1617249.48293</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2228384.99339</v>
+        <v>1881961.68319</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2548070.17653</v>
+        <v>2166956.56964</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2892114.40366</v>
+        <v>2641343.71696</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3245847.4169</v>
+        <v>3078387.813</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>5062174.923780001</v>
+        <v>4877444.38162</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5638958.36501</v>
+        <v>5233789.27558</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>179542583.24584</v>
+        <v>178912345.4564</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>17079997.00978</v>
+        <v>15869595.90236</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>14070899.27052</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13409490.02983</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>18183314.988</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>53036.78208</v>
+        <v>25149.89197</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>116954.91829</v>
+        <v>27540.39818</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>132870.19658</v>
+        <v>26885.39041</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>160973.21675</v>
+        <v>48942.69101</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>148146.23867</v>
+        <v>73398.61133</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>142893.06406</v>
+        <v>27385.17431</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>178800.51244</v>
+        <v>98061.56973999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>169737.07438</v>
+        <v>89001.34031999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>545201.8997999999</v>
+        <v>292195.30268</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>341959.7482</v>
+        <v>133929.92995</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>562443.40777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>273999.43375</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>50778.869</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>2440539.2336</v>
+        <v>4.61614</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>191841.34666</v>
+        <v>73.01613999999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>103421.17002</v>
+        <v>8475.4519</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>100074.59018</v>
+        <v>73232.95681</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>66270.74077</v>
+        <v>62713.72079000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>46646.46908</v>
+        <v>44638.41733</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>133281.91094</v>
+        <v>116090.31541</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>98953.76902000001</v>
+        <v>78845.54012999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>130292.44194</v>
+        <v>109104.36258</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>180629.12152</v>
+        <v>170479.71042</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>171555.94849</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>151163.00482</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>195216.914</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>283071.86749</v>
+        <v>266155.98361</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>169498.23301</v>
+        <v>151746.76664</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>220061.75852</v>
+        <v>198395.36315</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>242309.00169</v>
+        <v>206487.86092</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>231948.92617</v>
+        <v>194699.75362</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>294072.42855</v>
+        <v>256914.97128</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>417068.9835400001</v>
+        <v>367422.42749</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>587620.85384</v>
+        <v>550676.3493199999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>831522.04605</v>
+        <v>761623.2799200001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1256916.51732</v>
+        <v>1200267.22943</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1467202.78925</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1452848.87898</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1415797.103</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>14404.56046</v>
+        <v>14279.64374</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7957.30301</v>
+        <v>7939.284670000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>8097.95194</v>
+        <v>6708.729699999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>31685.93418</v>
+        <v>31101.58696</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>19607.55223</v>
+        <v>19606.45716</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>31438.1178</v>
+        <v>23381.13165</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>33963.77845</v>
+        <v>29273.58868</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>46468.03185</v>
+        <v>50149.95355</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>50624.14724000001</v>
+        <v>50343.741</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>36746.33383</v>
+        <v>36725.09043</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>121830.84208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>117312.02462</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>70414.20600000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>47689.48725999999</v>
+        <v>47456.93643</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>27786.02129</v>
+        <v>27435.14382</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>69363.96166</v>
+        <v>43958.28306</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>39478.75839</v>
+        <v>37949.41695000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>109486.76006</v>
+        <v>110626.86036</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>56129.62442</v>
+        <v>57347.49233</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>233513.07121</v>
+        <v>231620.31643</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>109070.24928</v>
+        <v>106437.48485</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>158827.94664</v>
+        <v>156408.8811</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>229640.06734</v>
+        <v>227220.72633</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>290176.22845</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>288722.09412</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>252192.467</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>5586.667999999999</v>
+        <v>5548.16201</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>6807.599180000001</v>
+        <v>6751.72877</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>8543.400099999999</v>
+        <v>8481.47766</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>21064.62409</v>
+        <v>8271.328379999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>27728.3253</v>
+        <v>14526.03527</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>37306.99503</v>
+        <v>37136.72294</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>68661.70792999999</v>
+        <v>68647.69219999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>96361.56326</v>
+        <v>95904.82987999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>134193.7774</v>
+        <v>133799.44811</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>195805.00993</v>
+        <v>178309.94426</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>506105.54172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>506076.53829</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>343314.555</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1082462.98491</v>
+        <v>611854.39351</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>984682.59634</v>
+        <v>721814.81725</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>869137.0974000001</v>
+        <v>802203.09389</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>985714.79016</v>
+        <v>865834.82713</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1158776.862</v>
+        <v>1072560.78844</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1596278.49698</v>
+        <v>1480167.58951</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2694243.84769</v>
+        <v>2510498.36974</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2940014.22354</v>
+        <v>2733629.24051</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>175458937.22587</v>
+        <v>175309874.93586</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12410057.3453</v>
+        <v>11524230.0799</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7982326.13299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7691489.809090001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12773083.515</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>22301.26848</v>
+        <v>22220.53773</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>19899.5522</v>
+        <v>19517.72755</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>34351.86217</v>
+        <v>32384.08174</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>26319.98083</v>
+        <v>25485.85644</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>65890.6425</v>
+        <v>64533.8237</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>112023.76162</v>
+        <v>111158.52721</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>114038.69426</v>
+        <v>114327.68967</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>112794.38952</v>
+        <v>109963.83556</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>68307.17609000001</v>
+        <v>68306.13507999998</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>179129.65328</v>
+        <v>178456.88913</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>327281.88189</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>254557.352</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>2048.07355</v>
+        <v>1729.17132</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>4808.06727</v>
+        <v>675.24589</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>5008.79801</v>
+        <v>4522.399280000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>5157.07473</v>
+        <v>4866.60754</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1727.61005</v>
+        <v>295.06685</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>4806.92</v>
+        <v>2821.58495</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>3648.12294</v>
+        <v>3525.68547</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>7834.48616</v>
+        <v>5953.696849999999</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>143248.2928</v>
+        <v>140473.3789</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>373.90123</v>
@@ -2113,905 +2164,1023 @@
       <c r="M34" s="48" t="n">
         <v>195.81511</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>548795.9994600001</v>
+        <v>536707.7489700001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>681605.04602</v>
+        <v>653755.35402</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>777528.7969900001</v>
+        <v>749947.4124000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>935292.2055299999</v>
+        <v>864783.4375</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1062530.74591</v>
+        <v>1028382.59944</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>924251.5393600001</v>
+        <v>1037436.20149</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1184954.29438</v>
+        <v>1337976.72679</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1470103.72416</v>
+        <v>1413227.00461</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2021428.29201</v>
+        <v>1890215.99117</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2248739.31183</v>
+        <v>2219602.40128</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2641780.68277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2600400.54916</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2827960.007</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1276063.94816</v>
+        <v>838837.43187</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1129125.3088</v>
+        <v>951179.51653</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1625505.62714</v>
+        <v>1343873.38551</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1400914.30121</v>
+        <v>1154840.57333</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2275077.54739</v>
+        <v>1929923.4599</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2340465.40372</v>
+        <v>2139033.48085</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4302355.059470001</v>
+        <v>3891249.26625</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4441412.859219999</v>
+        <v>4088550.2947</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>177063363.62913</v>
+        <v>176674304.87845</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>14751522.11856</v>
+        <v>13231753.90404</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>10612603.98679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10111777.90946</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>15982555.118</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>48568.61771</v>
+        <v>47645.99021</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>45033.23802</v>
+        <v>44236.94484</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>94857.38168999999</v>
+        <v>93822.49106</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>107753.49454</v>
+        <v>105547.09391</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>69789.44419999998</v>
+        <v>68401.48946</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>88588.36855000001</v>
+        <v>87901.8463</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>91528.27172</v>
+        <v>90687.92809999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>119285.64672</v>
+        <v>117871.6108</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>159456.31059</v>
+        <v>154485.579</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>175824.63693</v>
+        <v>174229.34739</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>251172.43733</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>250288.48546</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>294171.759</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>116938.99246</v>
+        <v>116163.3259</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>108182.22592</v>
+        <v>99478.73325</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>145285.90757</v>
+        <v>141144.31117</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>230129.28149</v>
+        <v>208819.17707</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>298397.32786</v>
+        <v>304452.23018</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>279825.25977</v>
+        <v>281959.03502</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>520389.8633499999</v>
+        <v>523268.35857</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>476003.89809</v>
+        <v>493614.08902</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>456433.62069</v>
+        <v>429280.31202</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>722404.92568</v>
+        <v>465081.83734</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>606647.2735</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>604068.5758</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>591134.644</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>12091.39901</v>
+        <v>6262.722110000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>364.88296</v>
+        <v>309.58572</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>119.32672</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>6458.90867</v>
+        <v>6275.221890000001</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>238.04442</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>23427.6791</v>
+        <v>22608.0678</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1330.92065</v>
+        <v>312.2795</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1841.54023</v>
+        <v>1278.47223</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>10015.17229</v>
+        <v>4142.639789999999</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>2359.82748</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>32305.6779</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>31008.91529</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>140623.718</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>949945.73379</v>
+        <v>527445.9562799999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>811970.1803699998</v>
+        <v>650437.49382</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1185378.28712</v>
+        <v>919894.0490100001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>706324.0470700001</v>
+        <v>624787.0560300001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1593761.34184</v>
+        <v>1331865.69916</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1537387.06036</v>
+        <v>1364596.94709</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3178898.17508</v>
+        <v>2776150.80527</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3235705.59821</v>
+        <v>2898655.95222</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>175800014.181</v>
+        <v>175484873.13152</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>13014779.46907</v>
+        <v>11813485.51207</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8404196.46869</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7942130.84412</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13957384.084</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>13293.39885</v>
+        <v>13022.47276</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>16462.49927</v>
+        <v>14765.5052</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>18486.64005</v>
+        <v>17388.21352</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>17756.33734</v>
+        <v>17034.77114</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>32130.29682</v>
+        <v>30568.93724</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>107923.44578</v>
+        <v>106948.51795</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>104238.61217</v>
+        <v>103699.42591</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>143910.20616</v>
+        <v>139822.00019</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>65947.53784</v>
+        <v>65947.53783999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>140323.31645</v>
+        <v>139445.09267</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>317377.86365</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>252442.96</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>1851.32389</v>
+        <v>697.04562</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>4198.2263</v>
+        <v>2298.58704</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>5874.61574</v>
+        <v>3258.04629</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>1651.88074</v>
+        <v>996.23234</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>4138.72912</v>
+        <v>1055.20441</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>1928.93918</v>
+        <v>235.06153</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>6220.7383</v>
+        <v>4179.78353</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>12603.03292</v>
+        <v>9176.203530000001</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>24934.95331</v>
+        <v>18350.984</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>23086.99206</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>14162.79667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>14100.359</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>33614.079</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>133374.48245</v>
+        <v>127599.91899</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>142914.05596</v>
+        <v>139652.66666</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>175503.46825</v>
+        <v>168246.94774</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>330840.35136</v>
+        <v>191381.02095</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>276622.36313</v>
+        <v>193341.85503</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>301384.65098</v>
+        <v>274784.00516</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>399748.4782</v>
+        <v>392950.68537</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>452062.93689</v>
+        <v>428131.9667100001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>546561.85341</v>
+        <v>517224.69428</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>672742.9508899999</v>
+        <v>614065.2950299999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>986741.46905</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>952802.8661399999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>713183.874</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1283351.35099</v>
+        <v>1069303.55542</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>972723.3868800001</v>
+        <v>930920.5394499999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1917187.62041</v>
+        <v>1848451.10478</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1639595.73168</v>
+        <v>1578839.92243</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2426935.53682</v>
+        <v>2313679.89594</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2275346.89394</v>
+        <v>2065317.10043</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3651986.80729</v>
+        <v>3433396.820319999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4849663.597929999</v>
+        <v>4689666.2281</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6136089.044340001</v>
+        <v>5768987.816849999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7697470.93455</v>
+        <v>7194459.15991</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7803921.19458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>7605410.442770001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>7613308.887</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1047045.21105</v>
+        <v>844101.8229400001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>755662.1119000001</v>
+        <v>719564.6916500001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1072101.7096</v>
+        <v>1028204.14853</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1378041.73129</v>
+        <v>1324823.76632</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1520337.52749</v>
+        <v>1454236.76256</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2005555.11984</v>
+        <v>1792179.73006</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2783821.07945</v>
+        <v>2556586.58785</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3798785.2245</v>
+        <v>3649565.83246</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4656405.375170001</v>
+        <v>4308343.53772</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5489228.94852</v>
+        <v>5027858.48358</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>6152544.91745</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5979048.235490001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5449026.471</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>236306.13994</v>
+        <v>225201.73248</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>217061.27498</v>
+        <v>211355.8478</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>845085.91081</v>
+        <v>820246.9562500002</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>261554.00039</v>
+        <v>254016.15611</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>906598.0093299999</v>
+        <v>859443.13338</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>269791.7741</v>
+        <v>273137.37037</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>868165.7278400001</v>
+        <v>876810.2324699999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1050878.37343</v>
+        <v>1040100.39564</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1479683.66917</v>
+        <v>1460644.27913</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2208241.98603</v>
+        <v>2166600.67633</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1651376.27713</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1626362.20728</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2164282.416</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3209358.98427</v>
+        <v>896195.44226</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2027099.34841</v>
+        <v>1687813.05083</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1139538.43847</v>
+        <v>1159145.37464</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1972393.66566</v>
+        <v>1894220.67726</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>907559.49226</v>
+        <v>982320.59131</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2238996.31723</v>
+        <v>2299498.77789</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1708744.52181</v>
+        <v>1984377.12787</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>774127.9979600002</v>
+        <v>819127.7533499999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>4199864.226009999</v>
+        <v>4178923.664</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4320829.2412</v>
+        <v>5132095.22884</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6216926.442299999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6377405.12995</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6638760.049</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>221628.4116</v>
+        <v>189871.6222</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>457196.5665</v>
+        <v>395377.5295600001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>754584.5732</v>
+        <v>568652.6976699999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>387496.0419600001</v>
+        <v>316020.62611</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>524232.4276899999</v>
+        <v>484339.94797</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>948690.03283</v>
+        <v>770068.2091</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>871003.91241</v>
+        <v>1056933.6951</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1146568.95999</v>
+        <v>1111460.53624</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1358543.59271</v>
+        <v>1153638.88452</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2676663.97221</v>
+        <v>2286683.38853</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1483628.42599</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1423840.31112</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1601503.817</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>8094.1705</v>
+        <v>8073.878580000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>6396.80648</v>
+        <v>6327.052320000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>10861.0947</v>
+        <v>10564.54217</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>9056.38392</v>
+        <v>8978.770690000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>35255.07525</v>
+        <v>10243.84501</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>19634.2569</v>
+        <v>19505.96095</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>31386.37785</v>
+        <v>30789.83528</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>134996.03128</v>
+        <v>104736.48679</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>114061.67567</v>
+        <v>112382.93817</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>13374.24106</v>
+        <v>13349.56515</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>23614.42671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>23408.78895</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>27068.294</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>213534.2411</v>
+        <v>181797.74362</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>450799.76002</v>
+        <v>389050.4772400001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>743723.4785</v>
+        <v>558088.1555</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>378439.65804</v>
+        <v>307041.85542</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>488977.3524399999</v>
+        <v>474096.10296</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>929055.7759300001</v>
+        <v>750562.24815</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>839617.5345599999</v>
+        <v>1026143.85982</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1011572.92871</v>
+        <v>1006724.04945</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1244481.91704</v>
+        <v>1041255.94635</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2663289.73115</v>
+        <v>2273333.82338</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1460013.99928</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1400431.52217</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1574435.523</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>205449.92304</v>
+        <v>188058.38616</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>285190.30043</v>
+        <v>259070.29611</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>773385.0325600001</v>
+        <v>658970.95502</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>345618.094</v>
+        <v>313590.53653</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>488972.41211</v>
+        <v>405264.6743</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>682027.0923400001</v>
+        <v>783927.6878199999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>772967.1723699999</v>
+        <v>808799.5421299998</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1044251.74018</v>
+        <v>1144472.64133</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>985081.24677</v>
+        <v>892814.29336</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1672385.99274</v>
+        <v>1634014.84576</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1726005.9985</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1717225.6174</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1280028.103</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4519.3218</v>
+        <v>4090.57625</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>10161.07976</v>
+        <v>9785.735879999998</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>9818.46077</v>
+        <v>9362.329800000001</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5726.55786</v>
+        <v>3872.40941</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>9870.29083</v>
+        <v>4272.11735</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>32535.19671</v>
+        <v>32941.82762</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5610.58065</v>
+        <v>6149.59755</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>13127.28466</v>
+        <v>13606.84015</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>10829.72243</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9871.2443</v>
+        <v>9805.79408</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8006.239329999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7583.20937</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17524.77</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>20819.71821</v>
+        <v>15009.94395</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>58008.10392</v>
+        <v>48171.13935</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>34555.86267</v>
+        <v>30168.61955</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>26861.92867</v>
+        <v>22820.8109</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>29093.80427</v>
+        <v>38314.4543</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>80877.91443999999</v>
+        <v>88003.81991000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>52060.72233999999</v>
+        <v>53068.79895999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>64215.26178</v>
+        <v>58757.22826</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>94039.08284</v>
+        <v>91220.06791</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>145719.25831</v>
+        <v>145304.08704</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>57187.55833000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>56824.2541</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>62256.774</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>180110.88303</v>
+        <v>168957.86596</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>217021.11675</v>
+        <v>201113.42088</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>729010.7091200001</v>
+        <v>619440.0056700001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>313029.60747</v>
+        <v>286897.31622</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>450008.31701</v>
+        <v>362678.10265</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>568613.98119</v>
+        <v>662982.0402899999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>715295.86938</v>
+        <v>749581.14562</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>966909.19374</v>
+        <v>1072108.57292</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>880212.4415</v>
+        <v>790764.5030199999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1516795.49013</v>
+        <v>1478904.96464</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1660812.20084</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1652818.15393</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1200246.559</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3225537.47283</v>
+        <v>898008.6782999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2199105.61448</v>
+        <v>1824120.28428</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1120737.97911</v>
+        <v>1068827.11729</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2014271.61362</v>
+        <v>1896650.76684</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>942819.5078399999</v>
+        <v>1061395.86498</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2505659.25772</v>
+        <v>2285639.29917</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1806781.26185</v>
+        <v>2232511.28084</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>876445.21777</v>
+        <v>786115.64826</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>4573326.57195</v>
+        <v>4439748.25516</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5325107.22067</v>
+        <v>5784763.771609999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>5974548.86979</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6084019.82367</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6960235.763</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>330407.87936</v>
+        <v>324106.89721</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>431644.30515</v>
+        <v>424168.13867</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>603870.6445000001</v>
+        <v>597423.80677</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>629198.0853500001</v>
+        <v>616526.09871</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>735468.0781099999</v>
+        <v>722459.2420699999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>704391.34971</v>
+        <v>703337.67357</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1002176.0936</v>
+        <v>990178.9286400001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>860588.63192</v>
+        <v>896775.11229</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1637041.77512</v>
+        <v>1614842.30191</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1990002.44836</v>
+        <v>1976392.21235</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2148001.05747</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2160416.85773</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2875320.659</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2895129.59347</v>
+        <v>573901.7810900001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1767461.30933</v>
+        <v>1399952.14561</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>516867.33461</v>
+        <v>471403.31052</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1385073.52827</v>
+        <v>1280124.66813</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>207351.42973</v>
+        <v>338936.62291</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1801267.90801</v>
+        <v>1582301.6256</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>804605.16825</v>
+        <v>1242332.3522</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>15856.58585000002</v>
+        <v>-110659.46403</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>2936284.796829999</v>
+        <v>2824905.95325</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3335104.77231</v>
+        <v>3808371.55926</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3826547.81232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3923602.96594</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>4084915.104</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>349</v>
+        <v>266</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>408</v>
+        <v>314</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>502</v>
+        <v>397</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>637</v>
+        <v>511</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>483</v>
+        <v>392</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>551</v>
+        <v>440</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>658</v>
+        <v>519</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>740</v>
+        <v>575</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>910</v>
+        <v>680</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>346</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>